--- a/Wood_2017_Rat_Clint_CLh.xlsx
+++ b/Wood_2017_Rat_Clint_CLh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Lab\NCCT_ExpoCast\ExpoCast2019\HTTKDataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwambaug\git\httkdatatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E8C1C5-63C1-4E09-9632-4F5590F7CC62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE0F357-9A1E-48A3-8D12-8CA8A30B60AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1026,7 +1029,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1088,6 +1091,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1404,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,9 +1495,9 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2">
-        <f>J2*I2/120/40*1000</f>
-        <v>14.725000000000001</v>
+      <c r="N2" s="21">
+        <f>J2/120/40*1000</f>
+        <v>15.83333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1530,6 +1534,10 @@
       <c r="M3" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="N3" s="21">
+        <f t="shared" ref="N3:N58" si="0">J3/120/40*1000</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1571,9 +1579,9 @@
       <c r="M4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N4">
-        <f t="shared" ref="N4:N58" si="0">J4*I4/120/40*1000</f>
-        <v>28.868749999999999</v>
+      <c r="N4" s="21">
+        <f t="shared" si="0"/>
+        <v>31.041666666666668</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -1616,7 +1624,7 @@
       <c r="M5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="21">
         <f t="shared" si="0"/>
         <v>0.89583333333333337</v>
       </c>
@@ -1655,9 +1663,9 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>79.158333333333346</v>
+      <c r="N6" s="21">
+        <f t="shared" si="0"/>
+        <v>86.041666666666671</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -1694,9 +1702,9 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7">
-        <f t="shared" si="0"/>
-        <v>7.5937500000000009</v>
+      <c r="N7" s="21">
+        <f t="shared" si="0"/>
+        <v>9.375</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -1739,9 +1747,9 @@
       <c r="M8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
-        <v>1.4145833333333333</v>
+      <c r="N8" s="21">
+        <f t="shared" si="0"/>
+        <v>1.4583333333333335</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -1778,9 +1786,9 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9">
-        <f t="shared" si="0"/>
-        <v>2.1541666666666668</v>
+      <c r="N9" s="21">
+        <f t="shared" si="0"/>
+        <v>2.2916666666666665</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -1823,9 +1831,9 @@
       <c r="M10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N10">
-        <f t="shared" si="0"/>
-        <v>8.8812499999999996</v>
+      <c r="N10" s="21">
+        <f t="shared" si="0"/>
+        <v>10.208333333333334</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -1856,6 +1864,10 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
+      <c r="N11" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
@@ -1897,9 +1909,9 @@
       <c r="M12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N12">
-        <f t="shared" si="0"/>
-        <v>25.687500000000004</v>
+      <c r="N12" s="21">
+        <f t="shared" si="0"/>
+        <v>28.541666666666668</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -1942,9 +1954,9 @@
       <c r="M13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N13">
-        <f t="shared" si="0"/>
-        <v>15.760416666666666</v>
+      <c r="N13" s="21">
+        <f t="shared" si="0"/>
+        <v>18.541666666666668</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -1987,9 +1999,9 @@
       <c r="M14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N14">
-        <f t="shared" si="0"/>
-        <v>75.399999999999991</v>
+      <c r="N14" s="21">
+        <f t="shared" si="0"/>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -2032,9 +2044,9 @@
       <c r="M15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N15">
-        <f t="shared" si="0"/>
-        <v>48.6</v>
+      <c r="N15" s="21">
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -2071,9 +2083,9 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
-      <c r="N16">
-        <f t="shared" si="0"/>
-        <v>72.262499999999989</v>
+      <c r="N16" s="21">
+        <f t="shared" si="0"/>
+        <v>76.875</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -2110,9 +2122,9 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
-      <c r="N17">
-        <f t="shared" si="0"/>
-        <v>245.77500000000001</v>
+      <c r="N17" s="21">
+        <f t="shared" si="0"/>
+        <v>682.70833333333337</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -2149,6 +2161,10 @@
       <c r="M18" s="5" t="s">
         <v>75</v>
       </c>
+      <c r="N18" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
@@ -2184,9 +2200,9 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
-      <c r="N19">
-        <f t="shared" si="0"/>
-        <v>26.054166666666667</v>
+      <c r="N19" s="21">
+        <f t="shared" si="0"/>
+        <v>35.208333333333336</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -2229,9 +2245,9 @@
       <c r="M20" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="N20">
-        <f t="shared" si="0"/>
-        <v>50.524999999999999</v>
+      <c r="N20" s="21">
+        <f t="shared" si="0"/>
+        <v>58.750000000000007</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -2268,6 +2284,10 @@
       <c r="M21" s="5" t="s">
         <v>86</v>
       </c>
+      <c r="N21" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -2303,9 +2323,9 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="N22">
-        <f t="shared" si="0"/>
-        <v>17.043749999999999</v>
+      <c r="N22" s="21">
+        <f t="shared" si="0"/>
+        <v>21.041666666666668</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -2340,9 +2360,9 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23">
-        <f t="shared" si="0"/>
-        <v>1.2702083333333334</v>
+      <c r="N23" s="21">
+        <f t="shared" si="0"/>
+        <v>1.3958333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -2379,6 +2399,10 @@
       <c r="M24" s="5" t="s">
         <v>94</v>
       </c>
+      <c r="N24" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
@@ -2414,9 +2438,9 @@
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
-      <c r="N25">
-        <f t="shared" si="0"/>
-        <v>54.737500000000011</v>
+      <c r="N25" s="21">
+        <f t="shared" si="0"/>
+        <v>62.916666666666664</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -2450,6 +2474,10 @@
       </c>
       <c r="M26" s="5" t="s">
         <v>103</v>
+      </c>
+      <c r="N26" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -2484,6 +2512,10 @@
       <c r="M27" s="5" t="s">
         <v>107</v>
       </c>
+      <c r="N27" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
@@ -2519,9 +2551,9 @@
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
-      <c r="N28">
-        <f t="shared" si="0"/>
-        <v>1.0093750000000001</v>
+      <c r="N28" s="21">
+        <f t="shared" si="0"/>
+        <v>1.0624999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -2558,6 +2590,10 @@
       <c r="M29" s="5" t="s">
         <v>115</v>
       </c>
+      <c r="N29" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
@@ -2593,6 +2629,10 @@
       <c r="M30" s="5" t="s">
         <v>120</v>
       </c>
+      <c r="N30" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
@@ -2628,6 +2668,10 @@
       <c r="M31" s="5" t="s">
         <v>125</v>
       </c>
+      <c r="N31" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
@@ -2663,6 +2707,10 @@
       <c r="M32" s="5" t="s">
         <v>130</v>
       </c>
+      <c r="N32" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
@@ -2704,9 +2752,9 @@
       <c r="M33" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="N33">
-        <f t="shared" si="0"/>
-        <v>18.937500000000004</v>
+      <c r="N33" s="21">
+        <f t="shared" si="0"/>
+        <v>21.041666666666668</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -2749,9 +2797,9 @@
       <c r="M34" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="N34">
-        <f t="shared" si="0"/>
-        <v>93.916666666666671</v>
+      <c r="N34" s="21">
+        <f t="shared" si="0"/>
+        <v>95.833333333333343</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -2788,7 +2836,7 @@
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
-      <c r="N35">
+      <c r="N35" s="21">
         <f t="shared" si="0"/>
         <v>265.20833333333331</v>
       </c>
@@ -2827,6 +2875,10 @@
       <c r="M36" s="5" t="s">
         <v>147</v>
       </c>
+      <c r="N36" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
@@ -2868,9 +2920,9 @@
       <c r="M37" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="N37">
-        <f t="shared" si="0"/>
-        <v>2224.625</v>
+      <c r="N37" s="21">
+        <f t="shared" si="0"/>
+        <v>8556.25</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -2907,6 +2959,10 @@
       <c r="M38" s="5" t="s">
         <v>157</v>
       </c>
+      <c r="N38" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
@@ -2942,6 +2998,10 @@
       <c r="M39" s="5" t="s">
         <v>161</v>
       </c>
+      <c r="N39" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
@@ -2977,9 +3037,9 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
-      <c r="N40">
-        <f t="shared" si="0"/>
-        <v>14.349999999999998</v>
+      <c r="N40" s="21">
+        <f t="shared" si="0"/>
+        <v>17.083333333333332</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -3016,9 +3076,9 @@
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
-      <c r="N41">
-        <f t="shared" si="0"/>
-        <v>47.585416666666667</v>
+      <c r="N41" s="21">
+        <f t="shared" si="0"/>
+        <v>52.291666666666664</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -3055,9 +3115,9 @@
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
-      <c r="N42">
-        <f t="shared" si="0"/>
-        <v>8.0291666666666668</v>
+      <c r="N42" s="21">
+        <f t="shared" si="0"/>
+        <v>8.5416666666666661</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -3100,9 +3160,9 @@
       <c r="M43" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="N43">
-        <f t="shared" si="0"/>
-        <v>1143.4374999999998</v>
+      <c r="N43" s="21">
+        <f t="shared" si="0"/>
+        <v>2286.8749999999995</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="51" x14ac:dyDescent="0.25">
@@ -3145,9 +3205,9 @@
       <c r="M44" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="N44">
-        <f t="shared" si="0"/>
-        <v>225.52499999999998</v>
+      <c r="N44" s="21">
+        <f t="shared" si="0"/>
+        <v>363.75</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -3184,6 +3244,10 @@
       <c r="M45" s="5" t="s">
         <v>183</v>
       </c>
+      <c r="N45" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
@@ -3219,9 +3283,9 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
-      <c r="N46">
-        <f t="shared" si="0"/>
-        <v>10.633333333333333</v>
+      <c r="N46" s="21">
+        <f t="shared" si="0"/>
+        <v>12.083333333333334</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -3258,9 +3322,9 @@
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
-      <c r="N47">
-        <f t="shared" si="0"/>
-        <v>50.137500000000003</v>
+      <c r="N47" s="21">
+        <f t="shared" si="0"/>
+        <v>79.583333333333329</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -3297,6 +3361,10 @@
       <c r="M48" s="1" t="s">
         <v>192</v>
       </c>
+      <c r="N48" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
@@ -3338,9 +3406,9 @@
       <c r="M49" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="N49">
-        <f t="shared" si="0"/>
-        <v>587.03125</v>
+      <c r="N49" s="21">
+        <f t="shared" si="0"/>
+        <v>1505.2083333333335</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -3377,9 +3445,9 @@
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
-      <c r="N50">
-        <f t="shared" si="0"/>
-        <v>11.999999999999998</v>
+      <c r="N50" s="21">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -3416,6 +3484,10 @@
       <c r="M51" s="5" t="s">
         <v>205</v>
       </c>
+      <c r="N51" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
@@ -3457,9 +3529,9 @@
       <c r="M52" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="N52">
-        <f t="shared" si="0"/>
-        <v>1158.8500000000001</v>
+      <c r="N52" s="21">
+        <f t="shared" si="0"/>
+        <v>1755.8333333333333</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -3502,9 +3574,9 @@
       <c r="M53" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="N53">
-        <f t="shared" si="0"/>
-        <v>1.6945833333333333</v>
+      <c r="N53" s="21">
+        <f t="shared" si="0"/>
+        <v>2.041666666666667</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -3547,9 +3619,9 @@
       <c r="M54" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="N54">
-        <f t="shared" si="0"/>
-        <v>161.90416666666667</v>
+      <c r="N54" s="21">
+        <f t="shared" si="0"/>
+        <v>177.91666666666666</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -3586,9 +3658,9 @@
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
-      <c r="N55">
-        <f t="shared" si="0"/>
-        <v>106.92500000000001</v>
+      <c r="N55" s="21">
+        <f t="shared" si="0"/>
+        <v>891.04166666666663</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -3625,9 +3697,9 @@
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
-      <c r="N56">
-        <f t="shared" si="0"/>
-        <v>71.933333333333337</v>
+      <c r="N56" s="21">
+        <f t="shared" si="0"/>
+        <v>138.33333333333334</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -3661,9 +3733,9 @@
       <c r="J57" s="5">
         <v>0.85</v>
       </c>
-      <c r="N57">
-        <f t="shared" si="0"/>
-        <v>0.16645833333333332</v>
+      <c r="N57" s="21">
+        <f t="shared" si="0"/>
+        <v>0.17708333333333331</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -3697,7 +3769,7 @@
       <c r="J58" s="5">
         <v>14</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="21">
         <f t="shared" si="0"/>
         <v>2.916666666666667</v>
       </c>
